--- a/data/NCKmais_2022_2025.xlsx
+++ b/data/NCKmais_2022_2025.xlsx
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>JFA - LSDH</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
